--- a/VR Karting/Results/1157.xlsx
+++ b/VR Karting/Results/1157.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="920" yWindow="760" windowWidth="22960" windowHeight="19160" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="19880" yWindow="760" windowWidth="13860" windowHeight="19160" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="맑은 고딕"/>
       <charset val="129"/>
@@ -37,6 +37,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -48,12 +55,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -68,11 +90,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2631,10 +2656,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F123" sqref="F123"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3357,716 +3382,742 @@
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
         <is>
-          <t>cut</t>
+          <t>cheap</t>
         </is>
       </c>
       <c r="B56" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>1.716507</v>
+        <v>1.7363412</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
         <is>
-          <t>nut</t>
+          <t>cut</t>
         </is>
       </c>
       <c r="B57" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>1.629082</v>
+        <v>1.716507</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="inlineStr">
         <is>
-          <t>hut</t>
+          <t>nut</t>
         </is>
       </c>
       <c r="B58" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>1.537663</v>
+        <v>1.629082</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>hut</t>
         </is>
       </c>
       <c r="B59" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>1.357048</v>
+        <v>1.537663</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="inlineStr">
         <is>
-          <t>should</t>
+          <t>not</t>
         </is>
       </c>
       <c r="B60" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>0.782753</v>
+        <v>1.357048</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="inlineStr">
         <is>
-          <t>pet</t>
+          <t>should</t>
         </is>
       </c>
       <c r="B61" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>2.42141</v>
+        <v>0.782753</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="inlineStr">
         <is>
-          <t>could</t>
+          <t>pet</t>
         </is>
       </c>
       <c r="B62" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>1.37809</v>
+        <v>2.42141</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>could</t>
         </is>
       </c>
       <c r="B63" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>0.7595291</v>
+        <v>1.37809</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="inlineStr">
         <is>
-          <t>itch</t>
+          <t>list</t>
         </is>
       </c>
       <c r="B64" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>3.214966</v>
+        <v>0.7595291</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="inlineStr">
         <is>
-          <t>but</t>
+          <t>itch</t>
         </is>
       </c>
       <c r="B65" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>2.056793</v>
+        <v>3.214966</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="inlineStr">
         <is>
-          <t>pull</t>
+          <t>but</t>
         </is>
       </c>
       <c r="B66" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>1.551704</v>
+        <v>2.056793</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="inlineStr">
         <is>
-          <t>mat</t>
+          <t>pull</t>
         </is>
       </c>
       <c r="B67" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>1.340897</v>
+        <v>1.551704</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>mat</t>
         </is>
       </c>
       <c r="B68" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>1.042534</v>
+        <v>1.340897</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="inlineStr">
         <is>
-          <t>tan</t>
+          <t>set</t>
         </is>
       </c>
       <c r="B69" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>1.965973</v>
+        <v>1.042534</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="inlineStr">
         <is>
-          <t>cot</t>
+          <t>tan</t>
         </is>
       </c>
       <c r="B70" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>1.774017</v>
+        <v>1.965973</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="inlineStr">
         <is>
-          <t>sin</t>
+          <t>cot</t>
         </is>
       </c>
       <c r="B71" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>1.365906</v>
+        <v>1.774017</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="inlineStr">
         <is>
-          <t>fond</t>
+          <t>sin</t>
         </is>
       </c>
       <c r="B72" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>2.282898</v>
+        <v>1.365906</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>fond</t>
         </is>
       </c>
       <c r="B73" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>0.7340088</v>
+        <v>2.282898</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="inlineStr">
         <is>
-          <t>cheap</t>
+          <t>bot</t>
         </is>
       </c>
       <c r="B74" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>0.9063416</v>
+        <v>0.7340088</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="inlineStr">
         <is>
-          <t>look</t>
+          <t>cheap</t>
         </is>
       </c>
       <c r="B75" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>1.531219</v>
+        <v>0.9063416</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>look</t>
         </is>
       </c>
       <c r="B76" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>0.6006775</v>
+        <v>1.531219</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>green</t>
         </is>
       </c>
       <c r="B77" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>1.265411</v>
+        <v>0.6006775</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="inlineStr">
         <is>
-          <t>rich</t>
+          <t>men</t>
         </is>
       </c>
       <c r="B78" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>2.119232</v>
+        <v>1.265411</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>rich</t>
         </is>
       </c>
       <c r="B79" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>1.513336</v>
+        <v>2.119232</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="inlineStr">
         <is>
-          <t>scene</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="B80" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>1.035522</v>
+        <v>1.513336</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="inlineStr">
         <is>
-          <t>would</t>
+          <t>scene</t>
         </is>
       </c>
       <c r="B81" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>3.231735</v>
+        <v>1.035522</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="inlineStr">
         <is>
-          <t>each</t>
+          <t>would</t>
         </is>
       </c>
       <c r="B82" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>0.3182983</v>
+        <v>3.231735</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="inlineStr">
         <is>
-          <t>wooed</t>
+          <t>each</t>
         </is>
       </c>
       <c r="B83" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>0.4716797</v>
+        <v>0.3182983</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="inlineStr">
         <is>
-          <t>fool</t>
+          <t>wooed</t>
         </is>
       </c>
       <c r="B84" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>0.3208923</v>
+        <v>0.4716797</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="inlineStr">
         <is>
-          <t>bat</t>
+          <t>fool</t>
         </is>
       </c>
       <c r="B85" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>0.5145416</v>
+        <v>0.3208923</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="inlineStr">
         <is>
-          <t>pool</t>
+          <t>bat</t>
         </is>
       </c>
       <c r="B86" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>2.091766</v>
+        <v>0.5145416</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>pool</t>
         </is>
       </c>
       <c r="B87" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>1.514099</v>
+        <v>2.091766</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="inlineStr">
         <is>
-          <t>met</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="B88" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>2.445618</v>
+        <v>1.514099</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="inlineStr">
         <is>
-          <t>fund</t>
+          <t>met</t>
         </is>
       </c>
       <c r="B89" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>0.9472351</v>
+        <v>2.445618</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="inlineStr">
         <is>
-          <t>pat</t>
+          <t>fund</t>
         </is>
       </c>
       <c r="B90" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>0.7315063000000001</v>
+        <v>0.9472351</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="inlineStr">
         <is>
-          <t>reach</t>
+          <t>pat</t>
         </is>
       </c>
       <c r="B91" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>0.4984741</v>
+        <v>0.7315063000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>reach</t>
         </is>
       </c>
       <c r="B92" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>1.44751</v>
+        <v>0.4984741</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="inlineStr">
         <is>
-          <t>man</t>
+          <t>full</t>
         </is>
       </c>
       <c r="B93" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>0.3976135</v>
+        <v>1.44751</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="inlineStr">
         <is>
-          <t>can</t>
+          <t>man</t>
         </is>
       </c>
       <c r="B94" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>1.042328</v>
+        <v>0.3976135</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="inlineStr">
         <is>
-          <t>pop</t>
+          <t>can</t>
         </is>
       </c>
       <c r="B95" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>2.383698</v>
+        <v>1.042328</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="inlineStr">
         <is>
-          <t>sob</t>
+          <t>pop</t>
         </is>
       </c>
       <c r="B96" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>1.155731</v>
+        <v>2.383698</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="inlineStr">
         <is>
-          <t>field</t>
+          <t>sob</t>
         </is>
       </c>
       <c r="B97" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>1.472504</v>
+        <v>1.155731</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="inlineStr">
         <is>
-          <t>least</t>
+          <t>field</t>
         </is>
       </c>
       <c r="B98" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>1.206848</v>
+        <v>1.472504</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="inlineStr">
         <is>
-          <t>chip</t>
+          <t>least</t>
         </is>
       </c>
       <c r="B99" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>0.683136</v>
+        <v>1.206848</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="inlineStr">
         <is>
-          <t>shooed</t>
+          <t>chip</t>
         </is>
       </c>
       <c r="B100" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>2.665619</v>
+        <v>0.683136</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>shooed</t>
         </is>
       </c>
       <c r="B101" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>1.687408</v>
+        <v>2.665619</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="inlineStr">
         <is>
-          <t>sub</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="B102" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>0.5675659</v>
+        <v>1.687408</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="inlineStr">
         <is>
-          <t>pup</t>
+          <t>sub</t>
         </is>
       </c>
       <c r="B103" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>1.402679</v>
+        <v>0.5675659</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="inlineStr">
         <is>
-          <t>Boole</t>
+          <t>pup</t>
         </is>
       </c>
       <c r="B104" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>1.126282</v>
+        <v>1.402679</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="inlineStr">
         <is>
-          <t>bull</t>
+          <t>Boole</t>
         </is>
       </c>
       <c r="B105" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>1.219543</v>
+        <v>1.126282</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="inlineStr">
         <is>
-          <t>cooed</t>
+          <t>bull</t>
         </is>
       </c>
       <c r="B106" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>0.6404419</v>
+        <v>1.219543</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="inlineStr">
         <is>
-          <t>filled</t>
+          <t>cooed</t>
         </is>
       </c>
       <c r="B107" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>2.429108</v>
+        <v>0.6404419</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="inlineStr">
         <is>
-          <t>Luke</t>
+          <t>filled</t>
         </is>
       </c>
       <c r="B108" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>1.830505</v>
+        <v>2.429108</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="inlineStr">
         <is>
-          <t>grin</t>
+          <t>Luke</t>
         </is>
       </c>
       <c r="B109" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>2.538177</v>
+        <v>1.830505</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="inlineStr">
         <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>2.538177</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
           <t>Ken</t>
         </is>
       </c>
-      <c r="B110" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C110" s="0" t="n">
+      <c r="B111" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" s="0" t="n">
         <v>1.157043</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>2.1432432</v>
       </c>
     </row>
   </sheetData>
@@ -4188,12 +4239,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>WORD</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Session 1</t>
         </is>
@@ -4779,12 +4830,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>CONTRAST</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Session 1</t>
         </is>

--- a/VR Karting/Results/1157.xlsx
+++ b/VR Karting/Results/1157.xlsx
@@ -3,16 +3,18 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2200" yWindow="760" windowWidth="22460" windowHeight="19160" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2200" yWindow="760" windowWidth="22460" windowHeight="19160" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Session 1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Session 2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Mini 2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Mini 1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Word Accuracies" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Contrast Accuracies" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Session 3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Mini 3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Mini 1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Word Accuracies" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Contrast Accuracies" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5610,7 +5612,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -5702,6 +5704,1481 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1.444069</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1.287064</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.857101</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1.348709</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.680069</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1.759232</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1.344009</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>1.420319</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2.031082</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.5327148</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.9454498</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1.728531</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2.541718</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2.665848</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.657227</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.9497681</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.8626099</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.42424</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.8466644</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1.046661</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2.408234</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1.002991</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.6590271</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1.923645</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1.457458</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1.327576</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1.721893</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>2.124268</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.9358826</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1.60199</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.421295</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.9848328</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>2.222961</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1.716644</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.5812683</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>2.282898</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1.182404</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1.269135</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1.894073</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.8149414</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>2.154266</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.9627075</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1.843018</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1.279602</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1.036072</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.8187561</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.355133</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1.468536</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.8792419</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1.149567</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1.740295</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>2.412903</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1.41452</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>2.296326</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1.16275</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.7987671</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2.76597</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.240084</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>2.142357</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.389782</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>1.233776</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1.482525</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>2.758522</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1.677483</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.375099</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>2.249336</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>1.379448</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1.042068</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>1.069489</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1.837456</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1.058197</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>2.171127</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1.472626</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>2.016586</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1.785522</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>1.822922</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>2.454346</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>2.080719</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>2.351303</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>2.707031</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>3.056458</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1.267578</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>2.831024</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>2.175919</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>2.178513</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1.473022</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>1.59285</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>2.130005</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>2.783173</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>2.131134</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>2.578064</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>2.214844</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.449463</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>2.001343</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>2.51297</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>2.044037</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1.266724</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>2.451782</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1.383514</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>2.860168</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>2.438385</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>2.099182</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>2.163269</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>2.740814</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>3.194458</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>1.311737</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.9829102</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>2.118195</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>2.643646</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.157013</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>1.260132</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>2.196869</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5718,7 +7195,7 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>mat</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="B1" s="0" t="b">
@@ -5728,7 +7205,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>hut</t>
+          <t>sub</t>
         </is>
       </c>
       <c r="B2" s="0" t="b">
@@ -5738,7 +7215,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>scene</t>
+          <t>Boole</t>
         </is>
       </c>
       <c r="B3" s="0" t="b">
@@ -5748,7 +7225,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>chip</t>
         </is>
       </c>
       <c r="B4" s="0" t="b">
@@ -5758,17 +7235,17 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>cheap</t>
         </is>
       </c>
       <c r="B5" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>sin</t>
+          <t>sob</t>
         </is>
       </c>
       <c r="B6" s="0" t="b">
@@ -5778,7 +7255,7 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>met</t>
+          <t>bull</t>
         </is>
       </c>
       <c r="B7" s="0" t="b">
@@ -5788,11 +7265,11 @@
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>fool</t>
+          <t>tan</t>
         </is>
       </c>
       <c r="B8" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5800,13 +7277,112 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5830,6 +7406,11 @@
           <t>Session 2</t>
         </is>
       </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -5843,6 +7424,9 @@
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -5856,6 +7440,9 @@
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -5869,6 +7456,9 @@
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D4" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
@@ -5882,6 +7472,9 @@
       <c r="C5" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -5895,6 +7488,9 @@
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -5908,6 +7504,9 @@
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D7" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -5921,6 +7520,9 @@
       <c r="C8" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -5934,6 +7536,9 @@
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -5947,6 +7552,9 @@
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -5960,6 +7568,9 @@
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -5973,6 +7584,9 @@
       <c r="C12" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -5986,6 +7600,9 @@
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D13" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -5999,6 +7616,9 @@
       <c r="C14" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D14" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -6012,6 +7632,9 @@
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D15" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -6025,6 +7648,9 @@
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D16" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -6038,6 +7664,9 @@
       <c r="C17" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -6051,6 +7680,9 @@
       <c r="C18" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D18" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -6064,6 +7696,9 @@
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D19" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
@@ -6077,6 +7712,9 @@
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
@@ -6090,6 +7728,9 @@
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
@@ -6103,6 +7744,9 @@
       <c r="C22" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
@@ -6116,6 +7760,9 @@
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D23" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
@@ -6129,6 +7776,9 @@
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D24" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
@@ -6142,6 +7792,9 @@
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
@@ -6155,6 +7808,9 @@
       <c r="C26" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -6168,6 +7824,9 @@
       <c r="C27" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D27" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
@@ -6181,6 +7840,9 @@
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
@@ -6194,6 +7856,9 @@
       <c r="C29" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D29" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
@@ -6207,6 +7872,9 @@
       <c r="C30" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D30" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
@@ -6220,6 +7888,9 @@
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
@@ -6233,6 +7904,9 @@
       <c r="C32" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D32" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
@@ -6246,6 +7920,9 @@
       <c r="C33" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
@@ -6259,6 +7936,9 @@
       <c r="C34" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
@@ -6272,6 +7952,9 @@
       <c r="C35" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D35" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
@@ -6285,6 +7968,9 @@
       <c r="C36" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
@@ -6298,6 +7984,9 @@
       <c r="C37" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
@@ -6311,6 +8000,9 @@
       <c r="C38" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D38" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
@@ -6324,6 +8016,9 @@
       <c r="C39" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D39" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
@@ -6337,6 +8032,9 @@
       <c r="C40" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D40" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
@@ -6350,6 +8048,9 @@
       <c r="C41" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D41" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
@@ -6363,6 +8064,9 @@
       <c r="C42" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D42" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
@@ -6376,6 +8080,9 @@
       <c r="C43" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D43" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
@@ -6389,6 +8096,9 @@
       <c r="C44" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D44" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
@@ -6402,6 +8112,9 @@
       <c r="C45" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D45" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
@@ -6415,6 +8128,9 @@
       <c r="C46" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D46" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
@@ -6428,6 +8144,9 @@
       <c r="C47" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
@@ -6441,6 +8160,9 @@
       <c r="C48" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D48" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
@@ -6454,6 +8176,9 @@
       <c r="C49" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
@@ -6467,6 +8192,9 @@
       <c r="C50" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D50" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
@@ -6480,6 +8208,9 @@
       <c r="C51" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D51" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
@@ -6493,6 +8224,9 @@
       <c r="C52" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="D52" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
@@ -6506,6 +8240,9 @@
       <c r="C53" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
@@ -6519,6 +8256,9 @@
       <c r="C54" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D54" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
@@ -6532,6 +8272,9 @@
       <c r="C55" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D55" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
@@ -6545,6 +8288,9 @@
       <c r="C56" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D56" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
@@ -6557,6 +8303,9 @@
       </c>
       <c r="C57" s="0" t="n">
         <v>0.5</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6564,13 +8313,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6594,6 +8343,11 @@
           <t>Session 2</t>
         </is>
       </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6607,6 +8361,9 @@
       <c r="C2" t="n">
         <v>0.6428571428571429</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6620,6 +8377,9 @@
       <c r="C3" t="n">
         <v>0.8928571428571429</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.7857142857142857</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6633,6 +8393,9 @@
       <c r="C4" t="n">
         <v>0.7142857142857143</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.6785714285714286</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6645,6 +8408,9 @@
       </c>
       <c r="C5" t="n">
         <v>0.75</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7142857142857143</v>
       </c>
     </row>
   </sheetData>

--- a/VR Karting/Results/1157.xlsx
+++ b/VR Karting/Results/1157.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2520" yWindow="760" windowWidth="22460" windowHeight="19160" tabRatio="600" firstSheet="4" activeTab="13" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12100" yWindow="760" windowWidth="22460" windowHeight="19160" tabRatio="600" firstSheet="4" activeTab="14" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,9 +20,11 @@
     <sheet name="Mini 5" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Session 6" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="Mini 6" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Word Accuracies" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Contrast Accuracies" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Evaluation Word Accuracies" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Session 7" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Mini 7" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Word Accuracies" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Contrast Accuracies" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Evaluation Word Accuracies" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -9338,8 +9340,8 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -9435,7 +9437,1581 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2.458841</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.6074409</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1.241093</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.7266846</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.7248878</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.9808311</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1.651443</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.7400055</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1.171677</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.7422485</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.7022476</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2.766846</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.7093201</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.303299</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1.567444</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>3.545883</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.6542511</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.873642</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.665863</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.727005</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1.348862</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.9702301</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.9286804</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.5436096</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1.009995</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.6490173</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.7413635</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1.004898</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1.348969</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1.404785</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.870407</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1.664276</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1.002914</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.4776611</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.6596069</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1.191315</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1.113281</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.6260071</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.9147034000000001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.6991577</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.5892029</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>2.468292</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>2.286804</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.8454895</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1.514526</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.3699036</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.3661804</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.6397095</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.610321</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>2.636108</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.3540039</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1.321014</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.683075</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>1.977997</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.7200623</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.9434509</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.6340408</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>1.435448</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.779953</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.6801949</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.5601081999999999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.5972176</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.7962112</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.6717758</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.4732742</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.165749</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.6633759</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.5546494</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.9956741</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.6652832</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.9332657</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.8984528000000001</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>1.590515</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>2.860733</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.5259399</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>0.8492432</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>0.6853638</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>0.8488922</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>2.174835</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>0.4477692</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.5684509</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1.89975</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>0.4428558</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>3.350998</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>2.725952</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1.352676</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>0.5998535</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>1.949142</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>0.5658722</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>1.808563</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>1.177246</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>0.4100952</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>0.7010193</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>0.6159057999999999</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.6468811</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.6339417000000001</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.7192078</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.5374451</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>2.088745</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1.040314</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.3891602</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1.072723</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.5049744</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>0.61026</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>1.629822</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>0.3549194</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.8220825</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>1.595428</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>1.320984</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.061249</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.8418579</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.9751892</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9479,6 +11055,11 @@
           <t>Session 6</t>
         </is>
       </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -9504,6 +11085,9 @@
       <c r="G2" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -9529,6 +11113,9 @@
       <c r="G3" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -9554,6 +11141,9 @@
       <c r="G4" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
@@ -9579,6 +11169,9 @@
       <c r="G5" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -9604,6 +11197,9 @@
       <c r="G6" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
@@ -9629,6 +11225,9 @@
       <c r="G7" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
@@ -9654,6 +11253,9 @@
       <c r="G8" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
@@ -9679,6 +11281,9 @@
       <c r="G9" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
@@ -9704,6 +11309,9 @@
       <c r="G10" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
@@ -9729,6 +11337,9 @@
       <c r="G11" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H11" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
@@ -9754,6 +11365,9 @@
       <c r="G12" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
@@ -9779,6 +11393,9 @@
       <c r="G13" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
@@ -9804,6 +11421,9 @@
       <c r="G14" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
@@ -9829,6 +11449,9 @@
       <c r="G15" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="inlineStr">
@@ -9854,6 +11477,9 @@
       <c r="G16" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
@@ -9879,6 +11505,9 @@
       <c r="G17" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H17" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
@@ -9904,6 +11533,9 @@
       <c r="G18" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H18" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
@@ -9929,6 +11561,9 @@
       <c r="G19" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H19" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
@@ -9954,6 +11589,9 @@
       <c r="G20" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H20" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
@@ -9979,6 +11617,9 @@
       <c r="G21" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H21" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
@@ -10004,6 +11645,9 @@
       <c r="G22" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H22" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
@@ -10029,6 +11673,9 @@
       <c r="G23" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H23" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
@@ -10054,6 +11701,9 @@
       <c r="G24" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
@@ -10079,6 +11729,9 @@
       <c r="G25" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H25" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
@@ -10104,6 +11757,9 @@
       <c r="G26" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
@@ -10129,6 +11785,9 @@
       <c r="G27" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H27" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
@@ -10154,6 +11813,9 @@
       <c r="G28" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H28" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
@@ -10179,6 +11841,9 @@
       <c r="G29" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H29" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
@@ -10204,6 +11869,9 @@
       <c r="G30" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H30" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
@@ -10229,6 +11897,9 @@
       <c r="G31" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H31" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
@@ -10254,6 +11925,9 @@
       <c r="G32" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H32" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
@@ -10279,6 +11953,9 @@
       <c r="G33" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H33" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
@@ -10304,6 +11981,9 @@
       <c r="G34" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H34" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
@@ -10329,6 +12009,9 @@
       <c r="G35" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H35" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
@@ -10354,6 +12037,9 @@
       <c r="G36" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H36" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
@@ -10379,6 +12065,9 @@
       <c r="G37" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H37" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
@@ -10404,6 +12093,9 @@
       <c r="G38" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H38" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
@@ -10429,6 +12121,9 @@
       <c r="G39" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H39" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
@@ -10454,6 +12149,9 @@
       <c r="G40" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H40" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
@@ -10479,6 +12177,9 @@
       <c r="G41" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H41" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
@@ -10504,6 +12205,9 @@
       <c r="G42" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H42" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
@@ -10529,6 +12233,9 @@
       <c r="G43" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H43" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
@@ -10554,6 +12261,9 @@
       <c r="G44" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H44" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
@@ -10579,6 +12289,9 @@
       <c r="G45" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H45" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
@@ -10604,6 +12317,9 @@
       <c r="G46" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H46" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
@@ -10629,6 +12345,9 @@
       <c r="G47" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H47" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
@@ -10654,6 +12373,9 @@
       <c r="G48" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H48" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
@@ -10679,6 +12401,9 @@
       <c r="G49" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H49" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
@@ -10704,6 +12429,9 @@
       <c r="G50" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H50" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
@@ -10729,6 +12457,9 @@
       <c r="G51" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H51" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
@@ -10754,6 +12485,9 @@
       <c r="G52" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H52" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
@@ -10779,6 +12513,9 @@
       <c r="G53" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H53" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
@@ -10804,6 +12541,9 @@
       <c r="G54" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H54" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
@@ -10829,6 +12569,9 @@
       <c r="G55" s="0" t="n">
         <v>0.5</v>
       </c>
+      <c r="H55" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
@@ -10854,6 +12597,9 @@
       <c r="G56" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H56" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
@@ -10878,6 +12624,9 @@
       </c>
       <c r="G57" s="0" t="n">
         <v>0.5</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10885,13 +12634,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10935,6 +12684,11 @@
           <t>Session 6</t>
         </is>
       </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -10960,6 +12714,9 @@
       <c r="G2" t="n">
         <v>0.9285714285714286</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -10985,6 +12742,9 @@
       <c r="G3" t="n">
         <v>0.8571428571428571</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.8928571428571429</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -11010,6 +12770,9 @@
       <c r="G4" t="n">
         <v>0.8571428571428571</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.7857142857142857</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -11034,6 +12797,9 @@
       </c>
       <c r="G5" t="n">
         <v>0.9285714285714286</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8928571428571429</v>
       </c>
     </row>
   </sheetData>
@@ -11041,7 +12807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/VR Karting/Results/1157.xlsx
+++ b/VR Karting/Results/1157.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12100" yWindow="760" windowWidth="22460" windowHeight="19160" tabRatio="600" firstSheet="4" activeTab="14" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12100" yWindow="760" windowWidth="15040" windowHeight="19160" tabRatio="600" firstSheet="14" activeTab="17" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="PRE" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,9 +22,12 @@
     <sheet name="Mini 6" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Session 7" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="Mini 7" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Word Accuracies" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Contrast Accuracies" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Evaluation Word Accuracies" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Session 8" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Mini 8" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="POST" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Word Accuracies" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Contrast Accuracies" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Evaluation Word Accuracies" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3393,7 +3396,7 @@
   <dimension ref="A1:D144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -9439,7 +9442,7 @@
   </sheetPr>
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
@@ -11011,446 +11014,207 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A57" sqref="A57:C112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>WORD</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Session 3</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Session 4</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Session 5</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Session 6</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Session 7</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>0.913826</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>bat</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.5</v>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
+        <v>0.4325638</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>bet</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1</v>
+        <v>1.497955</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Boole</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.5</v>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>0</v>
+        <v>0.5468216</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>bot</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.5</v>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1</v>
+        <v>0.8250046</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>bull</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>1</v>
+        <v>0.9259033</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>but</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
+        <v>3.198341</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>can</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>1</v>
+        <v>2.125565</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>cheap</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>1</v>
+        <v>1.145416</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>chip</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>1</v>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>1</v>
+        <v>0.6008453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>cooed</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>0.5</v>
+        <v>0.8854065</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>cot</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0.5</v>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>1</v>
+        <v>2.91333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>could</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>1</v>
+        <v>1.982376</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>cut</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>1</v>
+        <v>2.319595</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>each</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0.5</v>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>1</v>
+        <v>1.366562</v>
       </c>
     </row>
     <row r="16">
@@ -11459,1178 +11223,1263 @@
           <t>field</t>
         </is>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.5</v>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>1</v>
+        <v>2.62326</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>filled</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="n">
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>1</v>
+        <v>2.320404</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>fond</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0.5</v>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>0.5</v>
+        <v>1.63002</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>fool</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>0.5</v>
+        <v>2.118637</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="n">
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>0.5</v>
+        <v>0.9951172</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>fund</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="n">
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>1</v>
+        <v>1.481064</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>1</v>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>0.5</v>
+        <v>1.242371</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>grin</t>
-        </is>
-      </c>
-      <c r="B23" s="0" t="n">
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>1</v>
+        <v>1.674271</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="B24" s="0" t="n">
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>1</v>
+        <v>2.725967</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>hut</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="n">
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>1</v>
+        <v>0.5156403000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>itch</t>
-        </is>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>0.5</v>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>1</v>
+        <v>1.495605</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>Ken</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>0.5</v>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>0</v>
+        <v>0.6627807999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>least</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>0.5</v>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>1</v>
+        <v>1.660706</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="B29" s="0" t="n">
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>0.5</v>
+        <v>0.5901794</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>look</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>1</v>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>1</v>
+        <v>0.6567688</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>Luke</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="n">
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>1</v>
+        <v>1.113312</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>man</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>1</v>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>1</v>
+        <v>2.934021</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>mat</t>
-        </is>
-      </c>
-      <c r="B33" s="0" t="n">
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>1</v>
+        <v>1.841187</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="B34" s="0" t="n">
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>0.5</v>
+        <v>1.004761</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>0.5</v>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>0</v>
+        <v>0.969696</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
         <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0.5</v>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>0.5</v>
+        <v>1.093964</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>nut</t>
-        </is>
-      </c>
-      <c r="B37" s="0" t="n">
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>1</v>
+        <v>1.563995</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>pat</t>
-        </is>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>0.5</v>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>0.5</v>
+        <v>0.9713745</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>pet</t>
-        </is>
-      </c>
-      <c r="B39" s="0" t="n">
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>1</v>
+        <v>1.024231</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>pool</t>
-        </is>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>0</v>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>1</v>
+        <v>0.5550232</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>pop</t>
-        </is>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>0.5</v>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>1</v>
+        <v>1.243195</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
         <is>
-          <t>pull</t>
-        </is>
-      </c>
-      <c r="B42" s="0" t="n">
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>1</v>
+        <v>2.275696</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>pup</t>
-        </is>
-      </c>
-      <c r="B43" s="0" t="n">
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>1</v>
+        <v>0.8088379</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="B44" s="0" t="n">
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>1</v>
+        <v>0.9045715</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
         <is>
-          <t>rich</t>
-        </is>
-      </c>
-      <c r="B45" s="0" t="n">
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" s="0" t="n">
-        <v>1</v>
+        <v>0.7542725</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
         <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="B46" s="0" t="n">
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" s="0" t="n">
-        <v>1</v>
+        <v>0.8863220000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
         <is>
-          <t>scene</t>
-        </is>
-      </c>
-      <c r="B47" s="0" t="n">
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <v>1</v>
+        <v>0.7358704</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>0</v>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <v>1</v>
+        <v>0.8315125</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
         <is>
-          <t>shooed</t>
-        </is>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>0.5</v>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <v>0.5</v>
+        <v>1.004883</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
         <is>
-          <t>should</t>
-        </is>
-      </c>
-      <c r="B50" s="0" t="n">
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <v>1</v>
+        <v>1.258972</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
         <is>
-          <t>sin</t>
-        </is>
-      </c>
-      <c r="B51" s="0" t="n">
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <v>0.5</v>
+        <v>0.4692688</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
         <is>
-          <t>sob</t>
-        </is>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>0</v>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>0.5</v>
+        <v>0.6636658</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
         <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>0.5</v>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>1</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <v>1</v>
+        <v>1.790436</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
         <is>
-          <t>tan</t>
-        </is>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>1</v>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>0</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" s="0" t="n">
-        <v>1</v>
+        <v>1.658264</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
         <is>
-          <t>ten</t>
-        </is>
-      </c>
-      <c r="B55" s="0" t="n">
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H55" s="0" t="n">
-        <v>0.5</v>
+        <v>1.179718</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
         <is>
-          <t>wooed</t>
-        </is>
-      </c>
-      <c r="B56" s="0" t="n">
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
         <v>1</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" s="0" t="n">
-        <v>1</v>
+        <v>0.6801453</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
         <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>2.602871</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.609026</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.741806</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.5759659</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.6301231</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1.158421</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>1.073792</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1.071587</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>2.257492</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.550247</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.9633942</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>1.106209</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.5844269</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>1.387375</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.540863</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.6710968</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>3.265442</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.7104492</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>1.402008</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>0.6040344</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1.769592</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>2.25116</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1.121048</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>0.5692139000000001</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>0.8783875</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1.620026</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>0.6679535</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>0.730957</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>1.089066</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1.833664</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>0.8072815</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.8335724</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>1.564651</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>2.056427</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>2.352051</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>1.746521</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>2.506012</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>2.166687</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.711792</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1.022827</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.4121094</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.7341614</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>0.4052429</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.9267273</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.9542235999999999</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1.532135</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>0.8585815</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
           <t>would</t>
         </is>
       </c>
-      <c r="B57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H57" s="0" t="n">
-        <v>1</v>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>3.203979</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>0.7011414</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>1.572113</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>1.258179</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>0.5499573</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>0.5923767</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>2.039734</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>0.8903503</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>0.3231201</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -12640,170 +12489,96 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>CONTRAST</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Session 1</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Session 2</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Session 3</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Session 4</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Session 5</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Session 6</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Session 7</t>
-        </is>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ɛ vs. æ</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.75</v>
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ɪ vs. iː</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.8928571428571429</v>
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ʊ vs. uː</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.7857142857142857</v>
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ʌ vs. ɑ</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.8928571428571429</v>
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -12813,107 +12588,152 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>WORD</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>PRE</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>MID</t>
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>bait</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>bit</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0.9166666666666666</v>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>boat</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0.4166666666666667</v>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>bought</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0.8333333333333334</v>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>had</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.75</v>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>head</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -12922,80 +12742,2742 @@
           <t>heed</t>
         </is>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0.8333333333333334</v>
+      <c r="B8" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>hid</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>hod</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0.5</v>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>hood</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0.5</v>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>hud</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0.8333333333333334</v>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
           <t>who'd</t>
         </is>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0.9166666666666666</v>
+      <c r="B35" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>SingleTalker</t>
+        </is>
+      </c>
+      <c r="D96" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D98" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D99" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D100" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D101" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D102" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D103" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D104" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D105" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D106" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D107" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D108" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D109" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D110" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D111" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D112" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D113" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D116" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D118" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D119" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D120" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D123" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D126" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D127" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D128" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D129" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D130" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D131" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D132" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D133" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D134" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D135" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D136" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B137" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D137" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D138" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B139" s="0" t="b">
+        <v>0</v>
+      </c>
+      <c r="C139" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D139" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C140" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D140" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B141" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C141" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D141" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C142" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D142" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B143" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C143" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D143" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>PinkNoise</t>
+        </is>
+      </c>
+      <c r="D144" s="0" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -14471,6 +16953,2190 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Session 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bat</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bet</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Boole</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bot</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>bull</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>but</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>cheap</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>chip</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>cooed</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>cot</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>could</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>each</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>field</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>filled</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>fool</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>fund</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>grin</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>hot</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>hut</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>itch</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>mat</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>nut</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>pat</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>pet</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>pool</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>pup</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>scene</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>shooed</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>should</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>sob</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>tan</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>ten</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>wooed</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>CONTRAST</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Session 1</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Session 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Session 3</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Session 4</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Session 5</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Session 6</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Session 7</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Session 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ɛ vs. æ</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ɪ vs. iː</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ʊ vs. uː</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ʌ vs. ɑ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>WORD</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>MID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>bait</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>bit</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>had</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>head</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>hid</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>hod</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>hood</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>hud</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>who'd</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
